--- a/CT1.xlsx
+++ b/CT1.xlsx
@@ -25,7 +25,6 @@
   <customWorkbookViews>
     <customWorkbookView name="Windows User - Personal View" guid="{9C3082D0-B65E-40A8-BB4A-6BA980D9D182}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" tabRatio="864" activeSheetId="1"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="185">
   <si>
     <t>UserStoryID</t>
   </si>
@@ -303,16 +302,7 @@
     <t>SOR-48173</t>
   </si>
   <si>
-    <t>Step  Description</t>
-  </si>
-  <si>
-    <t>Prerequisite/Assumptions</t>
-  </si>
-  <si>
     <t>Test Data</t>
-  </si>
-  <si>
-    <t>Testcase Status</t>
   </si>
   <si>
     <t>TestCaseName</t>
@@ -454,9 +444,6 @@
     <t>Step2</t>
   </si>
   <si>
-    <t>Verify all the Tests of log in page will converted from english to spanish.</t>
-  </si>
-  <si>
     <t>Verify the new user  Registration page should be translated  to spanish .</t>
   </si>
   <si>
@@ -508,9 +495,6 @@
     <t>User can check the Member ID buttom and filled all the details Test   "Member ID","Dateof Birth" and "First and Last Name" will be in spanish..</t>
   </si>
   <si>
-    <t>User should get the Message Have your member ID card handy? Use your member ID to register page should displayed  in spanish.</t>
-  </si>
-  <si>
     <t>User  clicks on "Nest"</t>
   </si>
   <si>
@@ -520,15 +504,6 @@
     <t>"Member ID","Dateof Birth" and "First and Last Name" all the TestsBoxes will be in spanish.</t>
   </si>
   <si>
-    <t>User should Navigate to Find a doctor page and all the Tests and contents  must be in Spanish.</t>
-  </si>
-  <si>
-    <t>User  click on "provider" and choose the drop down Find a Doctor.All Footer and Header Tests are in spanish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User should Navigate to Find a doctor page and the Message displayed search as a Member in spanish. </t>
-  </si>
-  <si>
     <t>User  click on "provider"  and then "Find a Doctor".</t>
   </si>
   <si>
@@ -560,13 +535,106 @@
   </si>
   <si>
     <t>Forgot your username or password? No problem. Enter your info to find your account message should be displayed in spanish.</t>
+  </si>
+  <si>
+    <t>To validate the "Find a  Doctor " Page is Translated in spanish(As a  Guest).</t>
+  </si>
+  <si>
+    <t>User can search the Doctor as a Guest page must be in spanish.</t>
+  </si>
+  <si>
+    <t>Search by Selecting a Plan or Network. You can also search by All Plans and Networks page displayed in spanish.</t>
+  </si>
+  <si>
+    <t>User should search the Doctor as  a Guest with Different plan and all the Tests must be in spanish.</t>
+  </si>
+  <si>
+    <t>User can see the Tests "continue" is in English</t>
+  </si>
+  <si>
+    <t>To validate the "Find a  Doctor " Page is Translated in spanish.</t>
+  </si>
+  <si>
+    <t>User Click on the "provider " and "Find a  Doctor".</t>
+  </si>
+  <si>
+    <t>User can see the Medicare assignment and Medicare information all the Tests are in spanish.</t>
+  </si>
+  <si>
+    <t>To validate the "Remember Login and all the footers Tests in the  Page is Translated in spanish.</t>
+  </si>
+  <si>
+    <t>step4</t>
+  </si>
+  <si>
+    <t>User can see the Tests  Forgot Username or Password?Are you trying to shop for plans? You need to log in to shop.anthem.com all the Tests must be in spanish.</t>
+  </si>
+  <si>
+    <t>step5</t>
+  </si>
+  <si>
+    <t>user can see the Tests Medicaid eligible members in Kentucky, Virginia or Wisconsin register here must be in spanish.</t>
+  </si>
+  <si>
+    <t>Verify all the Tests and contents  of log in page will converted from english to spanish.</t>
+  </si>
+  <si>
+    <t>User can see the Tests Care Solutions and the two Links what to know and getting better care must be in spanish.</t>
+  </si>
+  <si>
+    <t>User can see the Tests  Health Resources and the three Links  Find a Doctor
+Find quality doctors and hospitals that are part of your plan. Medication Search
+Find out if a prescription drug is covered by your plan.LiveHealth® Online
+Talk to a doctor online, 24/7.all the Tests and contents  must be in spanish.</t>
+  </si>
+  <si>
+    <t>User click on the Menu Medicare the Medicare overview Link will displayed with footer  drop downs "shop","care" and "support" in spanish.</t>
+  </si>
+  <si>
+    <t>User  click on "provider" and choose the drop down Find a Doctor.All Menu and SubMenu  Tests are in spanish.</t>
+  </si>
+  <si>
+    <t>Test Case#</t>
+  </si>
+  <si>
+    <t>Requirement Mapping</t>
+  </si>
+  <si>
+    <t>Test Case</t>
+  </si>
+  <si>
+    <t>Scenario Description</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Log in to the Member Account page should displayed in spanish. </t>
+  </si>
+  <si>
+    <t>User is Get the Message Have your member ID card handy? Use your member ID to register page should displayed  in spanish.</t>
+  </si>
+  <si>
+    <t>User is get the Message Have your member ID card handy? Use your member ID to register page should displayed  in spanish.</t>
+  </si>
+  <si>
+    <t>User can Navigate to Find a doctor page and all the Tests and contents  must be in Spanish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can Navigate to Find a doctor page and the Message displayed search as a Member in spanish. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can  Navigate to Find a doctor page and the Message displayed search as a Member in spanish. </t>
+  </si>
+  <si>
+    <t>Test Result (Pass/Fail)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +687,13 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -852,7 +927,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1025,67 +1100,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="6" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1388,80 +1471,80 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
+      <c r="A2" s="71"/>
       <c r="B2" s="39" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C2" s="39">
         <v>1</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="39">
         <v>2</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="39" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C4" s="39">
         <v>3</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="52" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="70">
+        <v>84</v>
+      </c>
+      <c r="C5" s="63">
         <v>4</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>130</v>
+      <c r="D5" s="64" t="s">
+        <v>126</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -1524,785 +1607,1351 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="42" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" style="42" customWidth="1"/>
     <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="50.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="45.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24" style="40" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="36.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="37.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24" style="40" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="72">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="51"/>
+      <c r="B2" s="72" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>127</v>
+      </c>
       <c r="D2" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>110</v>
+        <v>96</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>107</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="35"/>
+        <v>136</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>85</v>
+      </c>
       <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
+      <c r="J2" s="35"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="51"/>
       <c r="D3" s="53"/>
-      <c r="E3" s="61"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="35"/>
-      <c r="G3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="35"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="35" t="s">
+        <v>86</v>
+      </c>
       <c r="I3" s="35"/>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
+      <c r="J3" s="35"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="72"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="51"/>
       <c r="D4" s="53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="72"/>
+      <c r="B5" s="72"/>
       <c r="C5" s="51"/>
       <c r="D5" s="53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
       <c r="C6" s="51"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="38"/>
+      <c r="D6" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>165</v>
+      </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="51"/>
       <c r="D7" s="53"/>
       <c r="E7" s="38"/>
       <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
       <c r="C8" s="51"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
       <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59">
+      <c r="G8" s="58"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72">
         <v>2</v>
       </c>
-      <c r="B9" s="59" t="s">
-        <v>133</v>
+      <c r="B9" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E9" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="G9" s="58"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="51"/>
       <c r="D10" s="51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E10" s="53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="G10" s="58"/>
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
+      <c r="J10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="67" t="s">
-        <v>141</v>
+        <v>98</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>171</v>
       </c>
       <c r="F11" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="53"/>
+        <v>180</v>
+      </c>
+      <c r="G11" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>89</v>
+      </c>
       <c r="I11" s="53"/>
-    </row>
-    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E12" s="53" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F12" s="53"/>
-      <c r="G12" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="53"/>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
       <c r="E13" s="53" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F13" s="53"/>
-      <c r="G13" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="53"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="39"/>
+      <c r="J13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="53"/>
+      <c r="D14" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>167</v>
+      </c>
       <c r="F14" s="53"/>
-      <c r="G14" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="53"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="I14" s="39"/>
+      <c r="J14" s="53"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
       <c r="E15" s="37"/>
       <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="53"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59">
+      <c r="G15" s="58"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="53"/>
+    </row>
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72">
         <v>3</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>136</v>
+      <c r="B16" s="72" t="s">
+        <v>132</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
+      <c r="G16" s="58"/>
       <c r="H16" s="53"/>
       <c r="I16" s="53"/>
-    </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="J16" s="53"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="72"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E17" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
+      <c r="G17" s="58"/>
       <c r="H17" s="53"/>
       <c r="I17" s="53"/>
-    </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="J17" s="53"/>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="53"/>
+        <v>142</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>142</v>
+      </c>
       <c r="H18" s="53"/>
       <c r="I18" s="53"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
+      <c r="J18" s="53"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F19" s="55"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="53"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="53"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="53"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="72"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E21" s="53" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="53"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="53"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
       <c r="E22" s="37"/>
       <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="53"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="75" t="s">
-        <v>137</v>
+      <c r="G22" s="58"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="65" t="s">
+        <v>133</v>
       </c>
       <c r="C23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="55"/>
       <c r="F23" s="55"/>
-      <c r="G23" s="53"/>
+      <c r="G23" s="58"/>
       <c r="H23" s="53"/>
       <c r="I23" s="53"/>
-    </row>
-    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J23" s="53"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>4</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="54"/>
       <c r="D24" s="54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="53"/>
+      <c r="G24" s="58"/>
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="76"/>
+      <c r="J24" s="53"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="66"/>
       <c r="C25" s="54"/>
       <c r="D25" s="54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E25" s="55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="53"/>
+      <c r="G25" s="58"/>
       <c r="H25" s="53"/>
       <c r="I25" s="53"/>
-    </row>
-    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="76"/>
+      <c r="J25" s="53"/>
+    </row>
+    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B26" s="66"/>
       <c r="C26" s="54"/>
       <c r="D26" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="67" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>103</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="G26" s="53"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="53"/>
-    </row>
-    <row r="27" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="76"/>
+        <v>181</v>
+      </c>
+      <c r="G26" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" s="53"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B27" s="66"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="53"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="76"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="66"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="53"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="77"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="53"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="67"/>
       <c r="C29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="37"/>
       <c r="F29" s="55"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="53"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="59" t="s">
-        <v>108</v>
+      <c r="G29" s="58"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="62"/>
+      <c r="B30" s="72" t="s">
+        <v>105</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="54"/>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="53"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="53"/>
       <c r="I30" s="53"/>
-    </row>
-    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="59"/>
+      <c r="J30" s="53"/>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="62"/>
+      <c r="B31" s="72"/>
       <c r="C31" s="54"/>
       <c r="D31" s="54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F31" s="55"/>
-      <c r="G31" s="53"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="53"/>
       <c r="I31" s="53"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="69">
+      <c r="J31" s="53"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="62">
         <v>5</v>
       </c>
-      <c r="B32" s="59"/>
+      <c r="B32" s="72"/>
       <c r="C32" s="54"/>
       <c r="D32" s="54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F32" s="55"/>
-      <c r="G32" s="53"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="53"/>
       <c r="I32" s="53"/>
-    </row>
-    <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="59"/>
+      <c r="J32" s="53"/>
+    </row>
+    <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="62"/>
+      <c r="B33" s="72"/>
       <c r="C33" s="54"/>
       <c r="D33" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="68" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>103</v>
       </c>
       <c r="F33" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="G33" s="53"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="53"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="59"/>
+        <v>182</v>
+      </c>
+      <c r="G33" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="H33" s="53"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="62"/>
+      <c r="B34" s="72"/>
       <c r="C34" s="54"/>
       <c r="D34" s="54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E34" s="55" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F34" s="55"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="53"/>
-    </row>
-    <row r="35" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="59"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="53"/>
+    </row>
+    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="62"/>
+      <c r="B35" s="72"/>
       <c r="C35" s="54"/>
       <c r="D35" s="54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E35" s="55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F35" s="55"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="53"/>
-    </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="59"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="53"/>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="54"/>
       <c r="D36" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="78" t="s">
-        <v>153</v>
+        <v>146</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>145</v>
       </c>
       <c r="F36" s="55"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="53"/>
+    </row>
+    <row r="37" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="62"/>
       <c r="B37" s="54"/>
       <c r="C37" s="54"/>
       <c r="D37" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="79" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="E37" s="69" t="s">
+        <v>148</v>
       </c>
       <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="55"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59">
+      <c r="G37" s="58"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="55"/>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="72">
         <v>6</v>
       </c>
-      <c r="B38" s="72" t="s">
-        <v>138</v>
+      <c r="B38" s="73" t="s">
+        <v>133</v>
       </c>
       <c r="C38" s="54"/>
       <c r="D38" s="54" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="80" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>151</v>
       </c>
       <c r="F38" s="55"/>
-      <c r="G38" s="53"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="53"/>
       <c r="I38" s="53"/>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="73"/>
+      <c r="J38" s="53"/>
+    </row>
+    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="72"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="54"/>
       <c r="D39" s="54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E39" s="55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F39" s="55"/>
-      <c r="G39" s="53"/>
+      <c r="G39" s="58"/>
       <c r="H39" s="53"/>
       <c r="I39" s="53"/>
-    </row>
-    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="73"/>
+      <c r="J39" s="53"/>
+    </row>
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="72"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="54"/>
       <c r="D40" s="54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F40" s="55"/>
-      <c r="G40" s="53"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="53"/>
       <c r="I40" s="53"/>
-    </row>
-    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="73"/>
+      <c r="J40" s="53"/>
+    </row>
+    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="72"/>
+      <c r="B41" s="74"/>
       <c r="C41" s="54"/>
       <c r="D41" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="67" t="s">
-        <v>121</v>
+        <v>98</v>
+      </c>
+      <c r="E41" s="60" t="s">
+        <v>118</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="53"/>
-    </row>
-    <row r="42" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
-      <c r="B42" s="73"/>
+        <v>154</v>
+      </c>
+      <c r="G41" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="53"/>
+    </row>
+    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="72"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="54"/>
       <c r="D42" s="54" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E42" s="55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F42" s="55"/>
-      <c r="G42" s="53"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="53"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="73"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="53"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="72"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="54"/>
       <c r="D43" s="54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E43" s="55" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F43" s="55"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="53"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="74"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="53"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="72"/>
+      <c r="B44" s="75"/>
       <c r="C44" s="54"/>
       <c r="D44" s="54"/>
       <c r="E44" s="37"/>
       <c r="F44" s="55"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="53"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59" t="s">
-        <v>139</v>
+      <c r="G44" s="58"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="53"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="72">
+        <v>7</v>
+      </c>
+      <c r="B45" s="72" t="s">
+        <v>155</v>
       </c>
       <c r="C45" s="54"/>
       <c r="D45" s="54"/>
       <c r="E45" s="55"/>
       <c r="F45" s="55"/>
-    </row>
-    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
+      <c r="G45" s="40"/>
+    </row>
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="54"/>
       <c r="D46" s="54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E46" s="55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F46" s="55"/>
-    </row>
-    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
+      <c r="G46" s="40"/>
+    </row>
+    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="54"/>
       <c r="D47" s="54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E47" s="55" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F47" s="55"/>
-    </row>
-    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
+      <c r="G47" s="40"/>
+    </row>
+    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="54"/>
       <c r="D48" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" s="67" t="s">
-        <v>160</v>
+        <v>98</v>
+      </c>
+      <c r="E48" s="60" t="s">
+        <v>156</v>
       </c>
       <c r="F48" s="55" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59"/>
+        <v>158</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="72"/>
+      <c r="B49" s="72"/>
       <c r="C49" s="54"/>
       <c r="D49" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="55"/>
+        <v>99</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>157</v>
+      </c>
       <c r="F49" s="55"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
+      <c r="G49" s="40"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="72"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="54"/>
       <c r="D50" s="54" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E50" s="55" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="F50" s="55"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
+      <c r="G50" s="40"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="54"/>
       <c r="D51" s="54"/>
       <c r="E51" s="37"/>
       <c r="F51" s="55"/>
+      <c r="G51" s="40"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="72">
+        <v>8</v>
+      </c>
+      <c r="B52" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F52" s="55"/>
+      <c r="G52" s="40"/>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="72"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F53" s="55"/>
+      <c r="G53" s="40"/>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="72"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="55"/>
+      <c r="G54" s="40"/>
+    </row>
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="72"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G55" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="72"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="F56" s="55"/>
+      <c r="G56" s="40"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="72"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="55"/>
+      <c r="G57" s="40"/>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="72"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="55"/>
+      <c r="G58" s="40"/>
+    </row>
+    <row r="59" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A59" s="72"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E59" s="70" t="s">
+        <v>170</v>
+      </c>
+      <c r="F59" s="55"/>
+      <c r="G59" s="40"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="72">
+        <v>9</v>
+      </c>
+      <c r="B60" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="55"/>
+      <c r="G60" s="40"/>
+    </row>
+    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="72"/>
+      <c r="B61" s="72"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F61" s="55"/>
+      <c r="G61" s="40"/>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="72"/>
+      <c r="B62" s="72"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E62" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="55"/>
+      <c r="G62" s="40"/>
+    </row>
+    <row r="63" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" s="72"/>
+      <c r="B63" s="72"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G63" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="72"/>
+      <c r="B64" s="72"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="40"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="72"/>
+      <c r="B65" s="72"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" s="55"/>
+      <c r="G65" s="40"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="72"/>
+      <c r="B66" s="72"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="40"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="72">
+        <v>10</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>151</v>
+      </c>
+      <c r="F67" s="55"/>
+      <c r="G67" s="40"/>
+    </row>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="72"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F68" s="55"/>
+      <c r="G68" s="40"/>
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="72"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="55"/>
+      <c r="G69" s="40"/>
+    </row>
+    <row r="70" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" s="72"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="72"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="F71" s="55"/>
+      <c r="G71" s="40"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="72"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="55"/>
+      <c r="G72" s="40"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="72"/>
+      <c r="B73" s="75"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="40"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="72">
+        <v>11</v>
+      </c>
+      <c r="B74" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="40"/>
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="72"/>
+      <c r="B75" s="72"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E75" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F75" s="55"/>
+      <c r="G75" s="40"/>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="72"/>
+      <c r="B76" s="72"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" s="55"/>
+      <c r="G76" s="40"/>
+    </row>
+    <row r="77" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="72"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="54"/>
+      <c r="D77" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G77" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="72"/>
+      <c r="B78" s="72"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="40"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="72"/>
+      <c r="B79" s="72"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E79" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F79" s="55"/>
+      <c r="G79" s="40"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="72"/>
+      <c r="B80" s="72"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="40"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="72">
+        <v>12</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="40"/>
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="72"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F82" s="55"/>
+      <c r="G82" s="40"/>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="72"/>
+      <c r="B83" s="72"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E83" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F83" s="55"/>
+      <c r="G83" s="40"/>
+    </row>
+    <row r="84" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A84" s="72"/>
+      <c r="B84" s="72"/>
+      <c r="C84" s="54"/>
+      <c r="D84" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="72"/>
+      <c r="B85" s="72"/>
+      <c r="C85" s="54"/>
+      <c r="D85" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="40"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="72"/>
+      <c r="B86" s="72"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F86" s="55"/>
+      <c r="G86" s="40"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="72"/>
+      <c r="B87" s="72"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="22">
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A74:A80"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="B81:B87"/>
     <mergeCell ref="B30:B36"/>
     <mergeCell ref="A38:A44"/>
     <mergeCell ref="B38:B44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="B45:B51"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="A60:A66"/>
+    <mergeCell ref="B60:B66"/>
+    <mergeCell ref="A67:A73"/>
+    <mergeCell ref="B67:B73"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D8 C1:D1">
     <cfRule type="dataBar" priority="1">
@@ -2319,7 +2968,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J44">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2384,18 +3033,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
@@ -2436,383 +3085,383 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79">
         <v>0</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="79">
         <v>0</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="79">
         <v>0</v>
       </c>
-      <c r="H3" s="65">
+      <c r="H3" s="79">
         <v>8</v>
       </c>
-      <c r="I3" s="65">
+      <c r="I3" s="79">
         <v>0</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="81">
         <v>0</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="64"/>
+      <c r="L3" s="78"/>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="64"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="78"/>
       <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="64"/>
+      <c r="A5" s="79"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="78"/>
       <c r="M5" s="36"/>
     </row>
     <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="78"/>
       <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="64"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="78"/>
       <c r="M7" s="36"/>
     </row>
     <row r="8" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79">
         <v>0</v>
       </c>
-      <c r="F8" s="65">
+      <c r="F8" s="79">
         <v>0</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="79">
         <v>0</v>
       </c>
-      <c r="H8" s="65">
+      <c r="H8" s="79">
         <v>8</v>
       </c>
-      <c r="I8" s="65">
+      <c r="I8" s="79">
         <v>0</v>
       </c>
-      <c r="J8" s="62">
+      <c r="J8" s="81">
         <v>0</v>
       </c>
-      <c r="K8" s="63" t="s">
+      <c r="K8" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="64"/>
+      <c r="L8" s="78"/>
       <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="64"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="78"/>
       <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="64"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="78"/>
       <c r="M10" s="36"/>
     </row>
     <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="64"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="78"/>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="64"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="78"/>
       <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65">
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79">
         <v>0</v>
       </c>
-      <c r="E13" s="65">
+      <c r="E13" s="79">
         <v>0</v>
       </c>
-      <c r="F13" s="65">
+      <c r="F13" s="79">
         <v>0</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="79">
         <v>0</v>
       </c>
-      <c r="H13" s="65">
+      <c r="H13" s="79">
         <v>20</v>
       </c>
-      <c r="I13" s="65">
+      <c r="I13" s="79">
         <v>0</v>
       </c>
-      <c r="J13" s="62">
+      <c r="J13" s="81">
         <v>0</v>
       </c>
-      <c r="K13" s="63" t="s">
+      <c r="K13" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="64"/>
+      <c r="L13" s="78"/>
       <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="64"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="78"/>
       <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="64"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="78"/>
       <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="64"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="78"/>
       <c r="M16" s="36"/>
     </row>
     <row r="17" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="64"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="81"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="78"/>
       <c r="M17" s="36"/>
     </row>
     <row r="18" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="78"/>
       <c r="M18" s="36"/>
     </row>
     <row r="19" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="64"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="78"/>
       <c r="M19" s="36"/>
     </row>
     <row r="20" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="64"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="78"/>
       <c r="M20" s="36"/>
     </row>
     <row r="21" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="64"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="78"/>
       <c r="M21" s="36"/>
     </row>
     <row r="22" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="64"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="78"/>
       <c r="M22" s="36"/>
     </row>
     <row r="23" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="78"/>
       <c r="M23" s="36"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="78"/>
       <c r="M24" s="36"/>
     </row>
     <row r="25" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -2849,126 +3498,126 @@
       <c r="M25" s="36"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65">
+      <c r="B26" s="79"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79">
         <v>0</v>
       </c>
-      <c r="E26" s="65">
+      <c r="E26" s="79">
         <v>0</v>
       </c>
-      <c r="F26" s="65">
+      <c r="F26" s="79">
         <v>0</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="79">
         <v>0</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="79">
         <v>7</v>
       </c>
-      <c r="I26" s="65">
+      <c r="I26" s="79">
         <v>0</v>
       </c>
-      <c r="J26" s="62">
+      <c r="J26" s="81">
         <v>0</v>
       </c>
-      <c r="K26" s="63" t="s">
+      <c r="K26" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="64"/>
+      <c r="L26" s="78"/>
       <c r="M26" s="36"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="64"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="78"/>
       <c r="M27" s="36"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="64"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="78"/>
       <c r="M28" s="36"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="64"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="79"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="78"/>
       <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="64"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="78"/>
       <c r="M30" s="36"/>
     </row>
     <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="64"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="79"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="78"/>
       <c r="M31" s="36"/>
     </row>
     <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="64"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="82"/>
+      <c r="L32" s="78"/>
       <c r="M32" s="36"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -3002,11 +3651,11 @@
       <c r="M34" s="36"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="59">
+      <c r="A35" s="72">
         <v>3</v>
       </c>
-      <c r="B35" s="59" t="s">
-        <v>124</v>
+      <c r="B35" s="72" t="s">
+        <v>121</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -3021,14 +3670,14 @@
       <c r="M35" s="36"/>
     </row>
     <row r="36" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="72"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="36"/>
@@ -3040,17 +3689,17 @@
       <c r="M36" s="36"/>
     </row>
     <row r="37" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
+      <c r="A37" s="72"/>
+      <c r="B37" s="72"/>
       <c r="C37" s="51"/>
       <c r="D37" s="51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F37" s="55" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
@@ -3061,14 +3710,14 @@
       <c r="M37" s="36"/>
     </row>
     <row r="38" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="72"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E38" s="67" t="s">
-        <v>114</v>
+        <v>98</v>
+      </c>
+      <c r="E38" s="60" t="s">
+        <v>111</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="36"/>
@@ -3080,14 +3729,14 @@
       <c r="M38" s="36"/>
     </row>
     <row r="39" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39" s="59"/>
-      <c r="B39" s="59"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="72"/>
       <c r="C39" s="51"/>
       <c r="D39" s="51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="36"/>
@@ -3099,14 +3748,14 @@
       <c r="M39" s="36"/>
     </row>
     <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="72"/>
       <c r="C40" s="51"/>
       <c r="D40" s="51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="36"/>
@@ -3118,8 +3767,8 @@
       <c r="M40" s="36"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
+      <c r="A41" s="72"/>
+      <c r="B41" s="72"/>
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
       <c r="E41" s="37"/>
@@ -3133,11 +3782,11 @@
       <c r="M41" s="36"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="59">
+      <c r="A42" s="72">
         <v>3</v>
       </c>
-      <c r="B42" s="59" t="s">
-        <v>104</v>
+      <c r="B42" s="72" t="s">
+        <v>101</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
@@ -3152,14 +3801,14 @@
       <c r="M42" s="36"/>
     </row>
     <row r="43" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="51"/>
       <c r="D43" s="51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="36"/>
@@ -3171,17 +3820,17 @@
       <c r="M43" s="36"/>
     </row>
     <row r="44" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="59"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="72"/>
       <c r="C44" s="51"/>
       <c r="D44" s="51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
@@ -3192,14 +3841,14 @@
       <c r="M44" s="36"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="59"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="72"/>
       <c r="C45" s="51"/>
       <c r="D45" s="51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F45" s="53"/>
       <c r="G45" s="36"/>
@@ -3211,14 +3860,14 @@
       <c r="M45" s="36"/>
     </row>
     <row r="46" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="59"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="72"/>
       <c r="C46" s="51"/>
       <c r="D46" s="51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="36"/>
@@ -3230,14 +3879,14 @@
       <c r="M46" s="36"/>
     </row>
     <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="59"/>
-      <c r="B47" s="59"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="72"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F47" s="53"/>
       <c r="G47" s="36"/>
@@ -3249,8 +3898,8 @@
       <c r="M47" s="36"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
+      <c r="A48" s="72"/>
+      <c r="B48" s="72"/>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
       <c r="E48" s="37"/>
@@ -3264,11 +3913,11 @@
       <c r="M48" s="36"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="59">
+      <c r="A49" s="72">
         <v>3</v>
       </c>
-      <c r="B49" s="59" t="s">
-        <v>105</v>
+      <c r="B49" s="72" t="s">
+        <v>102</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="51"/>
@@ -3283,14 +3932,14 @@
       <c r="M49" s="36"/>
     </row>
     <row r="50" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="59"/>
+      <c r="A50" s="72"/>
+      <c r="B50" s="72"/>
       <c r="C50" s="51"/>
       <c r="D50" s="51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F50" s="53"/>
       <c r="G50" s="36"/>
@@ -3302,14 +3951,14 @@
       <c r="M50" s="36"/>
     </row>
     <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="51"/>
       <c r="D51" s="51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F51" s="53"/>
       <c r="G51" s="36"/>
@@ -3321,17 +3970,17 @@
       <c r="M51" s="36"/>
     </row>
     <row r="52" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A52" s="59"/>
-      <c r="B52" s="59"/>
+      <c r="A52" s="72"/>
+      <c r="B52" s="72"/>
       <c r="C52" s="51"/>
       <c r="D52" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="68" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="E52" s="61" t="s">
+        <v>103</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
@@ -3342,14 +3991,14 @@
       <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="72"/>
       <c r="C53" s="51"/>
       <c r="D53" s="51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F53" s="53"/>
       <c r="G53" s="36"/>
@@ -3361,14 +4010,14 @@
       <c r="M53" s="36"/>
     </row>
     <row r="54" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
+      <c r="A54" s="72"/>
+      <c r="B54" s="72"/>
       <c r="C54" s="51"/>
       <c r="D54" s="51" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="36"/>
@@ -3380,8 +4029,8 @@
       <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="59"/>
-      <c r="B55" s="59"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="72"/>
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="37"/>
@@ -4476,44 +5125,6 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A49:A55"/>
-    <mergeCell ref="B49:B55"/>
-    <mergeCell ref="L3:L7"/>
-    <mergeCell ref="A35:A41"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="A42:A48"/>
-    <mergeCell ref="B42:B48"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="D3:D7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="F3:F7"/>
-    <mergeCell ref="G3:G7"/>
-    <mergeCell ref="H3:H7"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="J3:J7"/>
-    <mergeCell ref="K3:K7"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="G8:G12"/>
-    <mergeCell ref="L8:L12"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="B13:B24"/>
-    <mergeCell ref="C13:C24"/>
-    <mergeCell ref="D13:D24"/>
-    <mergeCell ref="E13:E24"/>
-    <mergeCell ref="I13:I24"/>
-    <mergeCell ref="J13:J24"/>
-    <mergeCell ref="K13:K24"/>
-    <mergeCell ref="H8:H12"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="J8:J12"/>
-    <mergeCell ref="K8:K12"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="J26:J32"/>
     <mergeCell ref="K26:K32"/>
@@ -4530,7 +5141,45 @@
     <mergeCell ref="I26:I32"/>
     <mergeCell ref="F13:F24"/>
     <mergeCell ref="G13:G24"/>
+    <mergeCell ref="K13:K24"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="K8:K12"/>
     <mergeCell ref="H13:H24"/>
+    <mergeCell ref="C13:C24"/>
+    <mergeCell ref="D13:D24"/>
+    <mergeCell ref="E13:E24"/>
+    <mergeCell ref="I13:I24"/>
+    <mergeCell ref="J13:J24"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="D3:D7"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="K3:K7"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="B49:B55"/>
+    <mergeCell ref="L3:L7"/>
+    <mergeCell ref="A35:A41"/>
+    <mergeCell ref="B35:B41"/>
+    <mergeCell ref="A42:A48"/>
+    <mergeCell ref="B42:B48"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="L8:L12"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B13:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/CT1.xlsx
+++ b/CT1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AF91838\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shriansh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BFD9266-838C-4C1C-8047-5F1059AA486C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" tabRatio="864" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7700" tabRatio="864" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPurposeReference" sheetId="33" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="159">
   <si>
     <t>UserStoryID</t>
   </si>
@@ -302,9 +303,18 @@
     <t>SOR-48173</t>
   </si>
   <si>
+    <t>Step  Description</t>
+  </si>
+  <si>
+    <t>Prerequisite/Assumptions</t>
+  </si>
+  <si>
     <t>Test Data</t>
   </si>
   <si>
+    <t>Testcase Status</t>
+  </si>
+  <si>
     <t>TestCaseName</t>
   </si>
   <si>
@@ -329,25 +339,10 @@
     <t>UserName-dummymember</t>
   </si>
   <si>
-    <t>Password-support1</t>
-  </si>
-  <si>
-    <t>click on "Nest"</t>
-  </si>
-  <si>
     <t>"Member ID","Dateof Birth" and "First and Last Name"</t>
   </si>
   <si>
-    <t>Member ID-</t>
-  </si>
-  <si>
-    <t>DOB</t>
-  </si>
-  <si>
     <t>First name-</t>
-  </si>
-  <si>
-    <t>Last Name-</t>
   </si>
   <si>
     <t>Go to the Consumer portal URL-https://consumerpublic.test1.va.anthem.com/</t>
@@ -393,15 +388,6 @@
 Log in or use your Member ID card to make sure you find a doctor or hospital in your network, which will help keep your cost down.</t>
   </si>
   <si>
-    <t>Launch  the Application By using the URL : https://consumerpublic.dev1.va.anthem.com/</t>
-  </si>
-  <si>
-    <t>User clicks on the Medicare</t>
-  </si>
-  <si>
-    <t>User clicks on the "Medicare"</t>
-  </si>
-  <si>
     <t>User click on the Register Now.</t>
   </si>
   <si>
@@ -423,9 +409,6 @@
     <t>User  click on Support and then "Login"</t>
   </si>
   <si>
-    <t>User  click on "Medicare"</t>
-  </si>
-  <si>
     <t>User Click on the "support " and "Forgot "Username and password"</t>
   </si>
   <si>
@@ -444,33 +427,12 @@
     <t>Step2</t>
   </si>
   <si>
-    <t>Verify the new user  Registration page should be translated  to spanish .</t>
-  </si>
-  <si>
-    <t>Verify the Find a Doctor page should be Tranlated to spanish.</t>
-  </si>
-  <si>
-    <t>verify the page for  Reset the username and password must be Translated in spanish.</t>
-  </si>
-  <si>
-    <t>To validate the consumer portal side is up and Running and Log in  page is  Translated from English  to spanish.</t>
-  </si>
-  <si>
     <t>step3</t>
   </si>
   <si>
-    <t>To Validate the Registration Page is translated in spanish(Member ID to Register).</t>
-  </si>
-  <si>
     <t>User   Registration screen will displayed in spanish  successfully</t>
   </si>
   <si>
-    <t>User can check in the Activation code  buttom and filled the below details in spanish .</t>
-  </si>
-  <si>
-    <t>To validate the Registration Page is Translated in spanish(Activation code)</t>
-  </si>
-  <si>
     <t>To validate the Find a Doctor page is Translated in spanish.</t>
   </si>
   <si>
@@ -483,25 +445,7 @@
     <t xml:space="preserve">Application should be Launched sucessfully and the Log in to the Member Account page should displayed in spanish. </t>
   </si>
   <si>
-    <t>user click on the Header  Medicare the Medicare overview Link will displayed with footer  drop downs "shop","care" and "support" in spanish.</t>
-  </si>
-  <si>
-    <t>User will go to the Link "support" and the choose the  Drop down "Login" .</t>
-  </si>
-  <si>
-    <t>User  choose the Dropdown Registration from "Medicare" and the Tests are in spanish.</t>
-  </si>
-  <si>
-    <t>User can check the Member ID buttom and filled all the details Test   "Member ID","Dateof Birth" and "First and Last Name" will be in spanish..</t>
-  </si>
-  <si>
-    <t>User  clicks on "Nest"</t>
-  </si>
-  <si>
-    <t>Use your activation code to register  page all the Tests and contents  should displayed  in spanish.</t>
-  </si>
-  <si>
-    <t>"Member ID","Dateof Birth" and "First and Last Name" all the TestsBoxes will be in spanish.</t>
+    <t xml:space="preserve">User should Navigate to Find a doctor page and the Message displayed search as a Member in spanish. </t>
   </si>
   <si>
     <t>User  click on "provider"  and then "Find a Doctor".</t>
@@ -537,104 +481,80 @@
     <t>Forgot your username or password? No problem. Enter your info to find your account message should be displayed in spanish.</t>
   </si>
   <si>
-    <t>To validate the "Find a  Doctor " Page is Translated in spanish(As a  Guest).</t>
-  </si>
-  <si>
-    <t>User can search the Doctor as a Guest page must be in spanish.</t>
-  </si>
-  <si>
-    <t>Search by Selecting a Plan or Network. You can also search by All Plans and Networks page displayed in spanish.</t>
-  </si>
-  <si>
-    <t>User should search the Doctor as  a Guest with Different plan and all the Tests must be in spanish.</t>
-  </si>
-  <si>
-    <t>User can see the Tests "continue" is in English</t>
-  </si>
-  <si>
-    <t>To validate the "Find a  Doctor " Page is Translated in spanish.</t>
-  </si>
-  <si>
-    <t>User Click on the "provider " and "Find a  Doctor".</t>
-  </si>
-  <si>
-    <t>User can see the Medicare assignment and Medicare information all the Tests are in spanish.</t>
-  </si>
-  <si>
-    <t>To validate the "Remember Login and all the footers Tests in the  Page is Translated in spanish.</t>
-  </si>
-  <si>
-    <t>step4</t>
-  </si>
-  <si>
-    <t>User can see the Tests  Forgot Username or Password?Are you trying to shop for plans? You need to log in to shop.anthem.com all the Tests must be in spanish.</t>
-  </si>
-  <si>
-    <t>step5</t>
-  </si>
-  <si>
-    <t>user can see the Tests Medicaid eligible members in Kentucky, Virginia or Wisconsin register here must be in spanish.</t>
-  </si>
-  <si>
-    <t>Verify all the Tests and contents  of log in page will converted from english to spanish.</t>
-  </si>
-  <si>
-    <t>User can see the Tests Care Solutions and the two Links what to know and getting better care must be in spanish.</t>
-  </si>
-  <si>
-    <t>User can see the Tests  Health Resources and the three Links  Find a Doctor
-Find quality doctors and hospitals that are part of your plan. Medication Search
-Find out if a prescription drug is covered by your plan.LiveHealth® Online
-Talk to a doctor online, 24/7.all the Tests and contents  must be in spanish.</t>
-  </si>
-  <si>
-    <t>User click on the Menu Medicare the Medicare overview Link will displayed with footer  drop downs "shop","care" and "support" in spanish.</t>
-  </si>
-  <si>
-    <t>User  click on "provider" and choose the drop down Find a Doctor.All Menu and SubMenu  Tests are in spanish.</t>
-  </si>
-  <si>
-    <t>Test Case#</t>
-  </si>
-  <si>
-    <t>Requirement Mapping</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Scenario Description</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Log in to the Member Account page should displayed in spanish. </t>
-  </si>
-  <si>
-    <t>User is Get the Message Have your member ID card handy? Use your member ID to register page should displayed  in spanish.</t>
-  </si>
-  <si>
-    <t>User is get the Message Have your member ID card handy? Use your member ID to register page should displayed  in spanish.</t>
-  </si>
-  <si>
-    <t>User can Navigate to Find a doctor page and all the Tests and contents  must be in Spanish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User can Navigate to Find a doctor page and the Message displayed search as a Member in spanish. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">User can  Navigate to Find a doctor page and the Message displayed search as a Member in spanish. </t>
-  </si>
-  <si>
-    <t>Test Result (Pass/Fail)</t>
+    <t>Verify all the text in login page are translated from english to spanish.</t>
+  </si>
+  <si>
+    <t>Verify all text in "New User Registration" page are translated  to spanish .</t>
+  </si>
+  <si>
+    <t>Verify all text in "Find a Doctor" page are tranlated to spanish.</t>
+  </si>
+  <si>
+    <t>Verify all text in "Reset the username and password" page are translated to spanish.</t>
+  </si>
+  <si>
+    <t>To validate the consumer portal site is up and running and Log in  page is  translated from English  to Spanish language.</t>
+  </si>
+  <si>
+    <t>Launch  the application by using the URL : https://consumerpublic.dev1.va.anthem.com/</t>
+  </si>
+  <si>
+    <t>Medicare Overview menu is dispalyed with all menu items like Shop, Care and Support visible in Spanish language. All the submenu items should also be translated to Spanish.</t>
+  </si>
+  <si>
+    <t>Click on Medicare tab on the top menu.</t>
+  </si>
+  <si>
+    <t>Click on the Login(displayed in spanish) link under the Support submenu.</t>
+  </si>
+  <si>
+    <t>Login page of member portal page is dispalyed in spanish language.</t>
+  </si>
+  <si>
+    <t>To validate the Registration page is translated in spanish(Member ID to Register).</t>
+  </si>
+  <si>
+    <t>Go to the Consumer portal URL-https://consumerpublic.test1.va.anthem.com/ and click on Registration link under the Medicare menu. Note that everything is displayed in Spanish.</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User registration page is displayed in Spanish language. </t>
+  </si>
+  <si>
+    <t>Swap between radio buttons Member Id and Activation code.</t>
+  </si>
+  <si>
+    <t>All Text are displayed in Spanish language in both cases.</t>
+  </si>
+  <si>
+    <t>Click on Providers link on top menu. And then click on "Find a doctor" link in submenu.</t>
+  </si>
+  <si>
+    <t>All texts and contents in "Find a Doctor" page  must be in Spanish.</t>
+  </si>
+  <si>
+    <t>Step 4</t>
+  </si>
+  <si>
+    <t>Please make sure all the text on this page are displayed in Spanish.</t>
+  </si>
+  <si>
+    <t>Under Serach as a Member(displayed in Spanish).</t>
+  </si>
+  <si>
+    <t>Under Search as Guest (displayed in Spanish).</t>
+  </si>
+  <si>
+    <t>All texts and contents are displayed in Spanish.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,13 +607,6 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -927,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1097,23 +1010,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1124,35 +1053,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1448,103 +1350,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.54296875" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" style="34" customWidth="1"/>
-    <col min="3" max="4" width="49.42578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="56.5703125" style="34" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" style="34" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="34" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="34"/>
+    <col min="3" max="4" width="49.453125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="56.54296875" style="34" customWidth="1"/>
+    <col min="6" max="6" width="51.26953125" style="34" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" style="34" customWidth="1"/>
+    <col min="8" max="16384" width="9.1796875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="70"/>
       <c r="B2" s="39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C2" s="39">
         <v>1</v>
       </c>
       <c r="D2" s="39" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
       <c r="G2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
+    <row r="3" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="70"/>
       <c r="B3" s="39" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="39">
         <v>2</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
       <c r="G3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="70"/>
       <c r="B4" s="39" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C4" s="39">
         <v>3</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
       <c r="G4" s="40"/>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="70"/>
       <c r="B5" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="63">
+        <v>87</v>
+      </c>
+      <c r="C5" s="62">
         <v>4</v>
       </c>
-      <c r="D5" s="64" t="s">
-        <v>126</v>
+      <c r="D5" s="63" t="s">
+        <v>139</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="33"/>
       <c r="G5" s="40"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="70"/>
       <c r="B6" s="57"/>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -1552,49 +1454,49 @@
       <c r="F6" s="33"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C14" s="40"/>
     </row>
   </sheetData>
@@ -1606,1355 +1508,543 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="37.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="24" style="40" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="31.26953125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="35.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="50.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="45.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="37.54296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.7265625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="24" style="40" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="37" t="s">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="D1" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="44" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="F1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="K1" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="120" x14ac:dyDescent="0.25">
-      <c r="A2" s="72">
+    <row r="2" spans="1:10" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="74">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="59" t="s">
-        <v>127</v>
-      </c>
+      <c r="B2" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="51"/>
       <c r="D2" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="76" t="s">
-        <v>107</v>
+        <v>94</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>141</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>85</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
+    </row>
+    <row r="3" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="74"/>
       <c r="B3" s="72"/>
       <c r="C3" s="51"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="35" t="s">
-        <v>86</v>
-      </c>
+      <c r="D3" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="74"/>
       <c r="B4" s="72"/>
       <c r="C4" s="51"/>
       <c r="D4" s="53" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="35"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="35"/>
+        <v>144</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="35"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="72"/>
+    </row>
+    <row r="5" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="74">
+        <v>2</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>146</v>
+      </c>
       <c r="C5" s="51"/>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="53"/>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="42">
+        <v>4</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+    </row>
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B8" s="72"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="72"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="67" t="s">
+        <v>155</v>
+      </c>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" s="73"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="61"/>
+      <c r="B11" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="61"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="61">
+        <v>5</v>
+      </c>
+      <c r="B13" s="72"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="61"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="53"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="53"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="61"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="61"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="53"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="61"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A18" s="61"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="35"/>
-    </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72">
-        <v>2</v>
-      </c>
-      <c r="B9" s="72" t="s">
+      <c r="E18" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51" t="s">
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="74">
+        <v>6</v>
+      </c>
+      <c r="B19" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="74"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+    </row>
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="74"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="74"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51" t="s">
+      <c r="E22" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="53"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="53"/>
+    </row>
+    <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="74"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-    </row>
-    <row r="11" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="43"/>
-      <c r="J12" s="53"/>
-    </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="53"/>
-    </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="53"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="53"/>
-    </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72">
-        <v>3</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-    </row>
-    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="55" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="53"/>
-    </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="53"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="53"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="53"/>
-    </row>
-    <row r="23" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="E23" s="55" t="s">
+        <v>113</v>
+      </c>
       <c r="F23" s="55"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="39"/>
       <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-    </row>
-    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="42">
-        <v>4</v>
-      </c>
-      <c r="B24" s="66"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="74"/>
+      <c r="B24" s="72"/>
       <c r="C24" s="54"/>
       <c r="D24" s="54" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E24" s="55" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F24" s="55"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="39"/>
       <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="66"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="74"/>
+      <c r="B25" s="73"/>
       <c r="C25" s="54"/>
-      <c r="D25" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>117</v>
-      </c>
+      <c r="D25" s="54"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="55"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="43"/>
       <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-    </row>
-    <row r="26" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="B26" s="66"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="74"/>
+      <c r="B26" s="74" t="s">
+        <v>122</v>
+      </c>
       <c r="C26" s="54"/>
-      <c r="D26" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="53"/>
-    </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B27" s="66"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+    </row>
+    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="54"/>
       <c r="D27" s="54" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E27" s="55" t="s">
-        <v>172</v>
+        <v>91</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="53"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="66"/>
+    </row>
+    <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="54"/>
       <c r="D28" s="54" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E28" s="55" t="s">
-        <v>87</v>
+        <v>134</v>
       </c>
       <c r="F28" s="55"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="53"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="67"/>
+    </row>
+    <row r="29" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="53"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="D29" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
+      <c r="D30" s="54" t="s">
+        <v>97</v>
+      </c>
       <c r="E30" s="55"/>
       <c r="F30" s="55"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-    </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
-      <c r="B31" s="72"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="54"/>
       <c r="D31" s="54" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E31" s="55" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F31" s="55"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="62">
-        <v>5</v>
-      </c>
-      <c r="B32" s="72"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="54"/>
-      <c r="D32" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>120</v>
-      </c>
+      <c r="D32" s="54"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="55"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-    </row>
-    <row r="33" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33" s="55" t="s">
-        <v>182</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="53"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="62"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="53"/>
-    </row>
-    <row r="35" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A35" s="62"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="53"/>
-    </row>
-    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="E36" s="68" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="53"/>
-    </row>
-    <row r="37" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="62"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="E37" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="55"/>
-    </row>
-    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="72">
-        <v>6</v>
-      </c>
-      <c r="B38" s="73" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="E38" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-    </row>
-    <row r="39" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-    </row>
-    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="55"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-    </row>
-    <row r="41" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F41" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="53"/>
-    </row>
-    <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="53"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="39"/>
-      <c r="J43" s="53"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="53"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="72">
-        <v>7</v>
-      </c>
-      <c r="B45" s="72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="40"/>
-    </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="55"/>
-      <c r="G46" s="40"/>
-    </row>
-    <row r="47" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="40"/>
-    </row>
-    <row r="48" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="55"/>
-      <c r="G49" s="40"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E50" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="40"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="40"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="72">
-        <v>8</v>
-      </c>
-      <c r="B52" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="F52" s="55"/>
-      <c r="G52" s="40"/>
-    </row>
-    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E53" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="40"/>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F54" s="55"/>
-      <c r="G54" s="40"/>
-    </row>
-    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="F55" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G55" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="F56" s="55"/>
-      <c r="G56" s="40"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F57" s="55"/>
-      <c r="G57" s="40"/>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54" t="s">
-        <v>146</v>
-      </c>
-      <c r="E58" s="55" t="s">
-        <v>169</v>
-      </c>
-      <c r="F58" s="55"/>
-      <c r="G58" s="40"/>
-    </row>
-    <row r="59" spans="1:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="E59" s="70" t="s">
-        <v>170</v>
-      </c>
-      <c r="F59" s="55"/>
-      <c r="G59" s="40"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="72">
-        <v>9</v>
-      </c>
-      <c r="B60" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="40"/>
-    </row>
-    <row r="61" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E61" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="40"/>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="B62" s="72"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E62" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F62" s="55"/>
-      <c r="G62" s="40"/>
-    </row>
-    <row r="63" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="72"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="F63" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G63" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="72"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="40"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
-      <c r="B65" s="72"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E65" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="40"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="72"/>
-      <c r="B66" s="72"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="40"/>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="72">
-        <v>10</v>
-      </c>
-      <c r="B67" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="F67" s="55"/>
-      <c r="G67" s="40"/>
-    </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="72"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E68" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F68" s="55"/>
-      <c r="G68" s="40"/>
-    </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="72"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="40"/>
-    </row>
-    <row r="70" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A70" s="72"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F70" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G70" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="72"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E71" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="40"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="72"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E72" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" s="55"/>
-      <c r="G72" s="40"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="72"/>
-      <c r="B73" s="75"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="40"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="72">
-        <v>11</v>
-      </c>
-      <c r="B74" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="40"/>
-    </row>
-    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="72"/>
-      <c r="B75" s="72"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E75" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F75" s="55"/>
-      <c r="G75" s="40"/>
-    </row>
-    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="72"/>
-      <c r="B76" s="72"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E76" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F76" s="55"/>
-      <c r="G76" s="40"/>
-    </row>
-    <row r="77" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="72"/>
-      <c r="B77" s="72"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E77" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="F77" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="72"/>
-      <c r="B78" s="72"/>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="40"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="72"/>
-      <c r="B79" s="72"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E79" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="40"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="72"/>
-      <c r="B80" s="72"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="40"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="72">
-        <v>12</v>
-      </c>
-      <c r="B81" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="40"/>
-    </row>
-    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="72"/>
-      <c r="B82" s="72"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E82" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F82" s="55"/>
-      <c r="G82" s="40"/>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="72"/>
-      <c r="B83" s="72"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E83" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="F83" s="55"/>
-      <c r="G83" s="40"/>
-    </row>
-    <row r="84" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A84" s="72"/>
-      <c r="B84" s="72"/>
-      <c r="C84" s="54"/>
-      <c r="D84" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="E84" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="F84" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="G84" s="40" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="72"/>
-      <c r="B85" s="72"/>
-      <c r="C85" s="54"/>
-      <c r="D85" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="40"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="72"/>
-      <c r="B86" s="72"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="E86" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="F86" s="55"/>
-      <c r="G86" s="40"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="72"/>
-      <c r="B87" s="72"/>
-      <c r="C87" s="54"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="B16:B22"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="A81:A87"/>
-    <mergeCell ref="B81:B87"/>
-    <mergeCell ref="B30:B36"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="A60:A66"/>
-    <mergeCell ref="B60:B66"/>
-    <mergeCell ref="A67:A73"/>
-    <mergeCell ref="B67:B73"/>
+  <mergeCells count="10">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:B32"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D8 C1:D1">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D2:D4 C1:D1">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2968,7 +2058,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I25" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2988,7 +2078,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D2:D8 C1:D1</xm:sqref>
+          <xm:sqref>D2:D4 C1:D1</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2997,56 +2087,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="A35" sqref="A35:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="45"/>
+    <col min="1" max="1" width="9.1796875" style="45"/>
     <col min="2" max="2" width="34" style="45" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="45" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="45" customWidth="1"/>
     <col min="5" max="5" width="9" style="45" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" style="45" customWidth="1"/>
-    <col min="7" max="8" width="7.42578125" style="45" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="27.140625" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="45"/>
+    <col min="6" max="6" width="8.26953125" style="45" customWidth="1"/>
+    <col min="7" max="8" width="7.453125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="8.26953125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="27.1796875" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-    </row>
-    <row r="2" spans="1:13" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+    </row>
+    <row r="2" spans="1:13" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A2" s="46" t="s">
         <v>62</v>
       </c>
@@ -3084,387 +2174,387 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="79" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79">
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76">
         <v>0</v>
       </c>
-      <c r="F3" s="79">
+      <c r="F3" s="76">
         <v>0</v>
       </c>
-      <c r="G3" s="79">
+      <c r="G3" s="76">
         <v>0</v>
       </c>
-      <c r="H3" s="79">
+      <c r="H3" s="76">
         <v>8</v>
       </c>
-      <c r="I3" s="79">
+      <c r="I3" s="76">
         <v>0</v>
       </c>
-      <c r="J3" s="81">
+      <c r="J3" s="78">
         <v>0</v>
       </c>
-      <c r="K3" s="82" t="s">
+      <c r="K3" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="78"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="36"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="78"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="75"/>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="78"/>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="75"/>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="78"/>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="75"/>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="78"/>
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="75"/>
       <c r="M7" s="36"/>
     </row>
-    <row r="8" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+    <row r="8" spans="1:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76">
         <v>0</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="76">
         <v>0</v>
       </c>
-      <c r="G8" s="79">
+      <c r="G8" s="76">
         <v>0</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="76">
         <v>8</v>
       </c>
-      <c r="I8" s="79">
+      <c r="I8" s="76">
         <v>0</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="78">
         <v>0</v>
       </c>
-      <c r="K8" s="82" t="s">
+      <c r="K8" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="78"/>
+      <c r="L8" s="75"/>
       <c r="M8" s="36"/>
     </row>
-    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="78"/>
+    <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="76"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="75"/>
       <c r="M9" s="36"/>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="78"/>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="76"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="78"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="75"/>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="78"/>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="76"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="75"/>
       <c r="M11" s="36"/>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="78"/>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="75"/>
       <c r="M12" s="36"/>
     </row>
-    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="79" t="s">
+    <row r="13" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76">
         <v>0</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="76">
         <v>0</v>
       </c>
-      <c r="F13" s="79">
+      <c r="F13" s="76">
         <v>0</v>
       </c>
-      <c r="G13" s="79">
+      <c r="G13" s="76">
         <v>0</v>
       </c>
-      <c r="H13" s="79">
+      <c r="H13" s="76">
         <v>20</v>
       </c>
-      <c r="I13" s="79">
+      <c r="I13" s="76">
         <v>0</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="78">
         <v>0</v>
       </c>
-      <c r="K13" s="82" t="s">
+      <c r="K13" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="78"/>
+      <c r="L13" s="75"/>
       <c r="M13" s="36"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="81"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="78"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="78"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="75"/>
       <c r="M14" s="36"/>
     </row>
-    <row r="15" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="81"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="78"/>
+    <row r="15" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="75"/>
       <c r="M15" s="36"/>
     </row>
-    <row r="16" spans="1:13" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="81"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="78"/>
+    <row r="16" spans="1:13" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="76"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="75"/>
       <c r="M16" s="36"/>
     </row>
-    <row r="17" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="78"/>
+    <row r="17" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="76"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="75"/>
       <c r="M17" s="36"/>
     </row>
-    <row r="18" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="78"/>
+    <row r="18" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="76"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="75"/>
       <c r="M18" s="36"/>
     </row>
-    <row r="19" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="78"/>
+    <row r="19" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="76"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="75"/>
       <c r="M19" s="36"/>
     </row>
-    <row r="20" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="78"/>
+    <row r="20" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="76"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="75"/>
       <c r="M20" s="36"/>
     </row>
-    <row r="21" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="81"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="78"/>
+    <row r="21" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="76"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="75"/>
       <c r="M21" s="36"/>
     </row>
-    <row r="22" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="78"/>
+    <row r="22" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="76"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="75"/>
       <c r="M22" s="36"/>
     </row>
-    <row r="23" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="78"/>
+    <row r="23" spans="1:13" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="75"/>
       <c r="M23" s="36"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="78"/>
+    <row r="24" spans="1:13" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="75"/>
       <c r="M24" s="36"/>
     </row>
-    <row r="25" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="47" t="s">
         <v>75</v>
       </c>
@@ -3497,130 +2587,130 @@
       <c r="L25" s="50"/>
       <c r="M25" s="36"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="79" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79">
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76">
         <v>0</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="76">
         <v>0</v>
       </c>
-      <c r="F26" s="79">
+      <c r="F26" s="76">
         <v>0</v>
       </c>
-      <c r="G26" s="79">
+      <c r="G26" s="76">
         <v>0</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="76">
         <v>7</v>
       </c>
-      <c r="I26" s="79">
+      <c r="I26" s="76">
         <v>0</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="78">
         <v>0</v>
       </c>
-      <c r="K26" s="82" t="s">
+      <c r="K26" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="78"/>
+      <c r="L26" s="75"/>
       <c r="M26" s="36"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="78"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="79"/>
+      <c r="L27" s="75"/>
       <c r="M27" s="36"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="79"/>
-      <c r="J28" s="81"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="78"/>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="79"/>
+      <c r="L28" s="75"/>
       <c r="M28" s="36"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="79"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="78"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="79"/>
+      <c r="L29" s="75"/>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="78"/>
+    <row r="30" spans="1:13" ht="2.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="75"/>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="81"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="78"/>
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="78"/>
+      <c r="K31" s="79"/>
+      <c r="L31" s="75"/>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="81"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="78"/>
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="76"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="75"/>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -3635,7 +2725,7 @@
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -3650,12 +2740,12 @@
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="72">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="74">
         <v>3</v>
       </c>
-      <c r="B35" s="72" t="s">
-        <v>121</v>
+      <c r="B35" s="74" t="s">
+        <v>115</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -3669,15 +2759,15 @@
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
+    <row r="36" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F36" s="53"/>
       <c r="G36" s="36"/>
@@ -3688,18 +2778,18 @@
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
+    <row r="37" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
       <c r="C37" s="51"/>
       <c r="D37" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="53" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F37" s="55" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
@@ -3709,15 +2799,15 @@
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
     </row>
-    <row r="38" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
+    <row r="38" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
       <c r="C38" s="51"/>
       <c r="D38" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E38" s="60" t="s">
-        <v>111</v>
+        <v>96</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>106</v>
       </c>
       <c r="F38" s="53"/>
       <c r="G38" s="36"/>
@@ -3728,15 +2818,15 @@
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
     </row>
-    <row r="39" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
+    <row r="39" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
       <c r="C39" s="51"/>
       <c r="D39" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="53"/>
       <c r="G39" s="36"/>
@@ -3747,15 +2837,15 @@
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
     </row>
-    <row r="40" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
+    <row r="40" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
       <c r="C40" s="51"/>
       <c r="D40" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E40" s="53" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F40" s="53"/>
       <c r="G40" s="36"/>
@@ -3766,9 +2856,9 @@
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
       <c r="C41" s="51"/>
       <c r="D41" s="51"/>
       <c r="E41" s="37"/>
@@ -3781,12 +2871,12 @@
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="72">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="74">
         <v>3</v>
       </c>
-      <c r="B42" s="72" t="s">
-        <v>101</v>
+      <c r="B42" s="74" t="s">
+        <v>99</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="51"/>
@@ -3800,15 +2890,15 @@
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
     </row>
-    <row r="43" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
+    <row r="43" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
       <c r="C43" s="51"/>
       <c r="D43" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E43" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F43" s="53"/>
       <c r="G43" s="36"/>
@@ -3819,18 +2909,18 @@
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
     </row>
-    <row r="44" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="72"/>
+    <row r="44" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
       <c r="C44" s="51"/>
       <c r="D44" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" s="53" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F44" s="55" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G44" s="36"/>
       <c r="H44" s="36"/>
@@ -3840,15 +2930,15 @@
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="51"/>
       <c r="D45" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F45" s="53"/>
       <c r="G45" s="36"/>
@@ -3859,15 +2949,15 @@
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
     </row>
-    <row r="46" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
+    <row r="46" spans="1:13" ht="87" x14ac:dyDescent="0.35">
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
       <c r="C46" s="51"/>
       <c r="D46" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" s="53" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F46" s="53"/>
       <c r="G46" s="36"/>
@@ -3878,15 +2968,15 @@
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
     </row>
-    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
+    <row r="47" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
       <c r="C47" s="51"/>
       <c r="D47" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F47" s="53"/>
       <c r="G47" s="36"/>
@@ -3897,9 +2987,9 @@
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
       <c r="C48" s="51"/>
       <c r="D48" s="51"/>
       <c r="E48" s="37"/>
@@ -3912,12 +3002,12 @@
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="72">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="74">
         <v>3</v>
       </c>
-      <c r="B49" s="72" t="s">
-        <v>102</v>
+      <c r="B49" s="74" t="s">
+        <v>100</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="51"/>
@@ -3931,15 +3021,15 @@
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
     </row>
-    <row r="50" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
+    <row r="50" spans="1:13" ht="145" x14ac:dyDescent="0.35">
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
       <c r="C50" s="51"/>
       <c r="D50" s="51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E50" s="53" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F50" s="53"/>
       <c r="G50" s="36"/>
@@ -3950,15 +3040,15 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
+    <row r="51" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="74"/>
+      <c r="B51" s="74"/>
       <c r="C51" s="51"/>
       <c r="D51" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E51" s="53" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F51" s="53"/>
       <c r="G51" s="36"/>
@@ -3969,18 +3059,18 @@
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
     </row>
-    <row r="52" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
+    <row r="52" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A52" s="74"/>
+      <c r="B52" s="74"/>
       <c r="C52" s="51"/>
       <c r="D52" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="E52" s="61" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>101</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" s="36"/>
       <c r="H52" s="36"/>
@@ -3990,15 +3080,15 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
+    <row r="53" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="74"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="51"/>
       <c r="D53" s="51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E53" s="53" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F53" s="53"/>
       <c r="G53" s="36"/>
@@ -4009,15 +3099,15 @@
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
     </row>
-    <row r="54" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
+    <row r="54" spans="1:13" ht="116" x14ac:dyDescent="0.35">
+      <c r="A54" s="74"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="51"/>
       <c r="D54" s="51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E54" s="53" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F54" s="53"/>
       <c r="G54" s="36"/>
@@ -4028,9 +3118,9 @@
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="74"/>
+      <c r="B55" s="74"/>
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
       <c r="E55" s="37"/>
@@ -4043,7 +3133,7 @@
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="36"/>
       <c r="B56" s="36"/>
       <c r="C56" s="36"/>
@@ -4058,7 +3148,7 @@
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="36"/>
       <c r="B57" s="36"/>
       <c r="C57" s="36"/>
@@ -4073,7 +3163,7 @@
       <c r="L57" s="36"/>
       <c r="M57" s="36"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="36"/>
       <c r="B58" s="36"/>
       <c r="C58" s="36"/>
@@ -4088,7 +3178,7 @@
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="36"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -4103,7 +3193,7 @@
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="36"/>
       <c r="B60" s="36"/>
       <c r="C60" s="36"/>
@@ -4118,7 +3208,7 @@
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="36"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
@@ -4133,7 +3223,7 @@
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="36"/>
       <c r="B62" s="36"/>
       <c r="C62" s="36"/>
@@ -4148,7 +3238,7 @@
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="36"/>
       <c r="B63" s="36"/>
       <c r="C63" s="36"/>
@@ -4163,7 +3253,7 @@
       <c r="L63" s="36"/>
       <c r="M63" s="36"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="36"/>
       <c r="B64" s="36"/>
       <c r="C64" s="36"/>
@@ -4178,7 +3268,7 @@
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="36"/>
       <c r="B65" s="36"/>
       <c r="C65" s="36"/>
@@ -4193,7 +3283,7 @@
       <c r="L65" s="36"/>
       <c r="M65" s="36"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="36"/>
       <c r="B66" s="36"/>
       <c r="C66" s="36"/>
@@ -4208,7 +3298,7 @@
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="36"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
@@ -4223,7 +3313,7 @@
       <c r="L67" s="36"/>
       <c r="M67" s="36"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="36"/>
       <c r="B68" s="36"/>
       <c r="C68" s="36"/>
@@ -4238,7 +3328,7 @@
       <c r="L68" s="36"/>
       <c r="M68" s="36"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="36"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -4253,7 +3343,7 @@
       <c r="L69" s="36"/>
       <c r="M69" s="36"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="36"/>
       <c r="B70" s="36"/>
       <c r="C70" s="36"/>
@@ -4268,7 +3358,7 @@
       <c r="L70" s="36"/>
       <c r="M70" s="36"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="36"/>
       <c r="B71" s="36"/>
       <c r="C71" s="36"/>
@@ -4283,7 +3373,7 @@
       <c r="L71" s="36"/>
       <c r="M71" s="36"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="36"/>
       <c r="B72" s="36"/>
       <c r="C72" s="36"/>
@@ -4298,7 +3388,7 @@
       <c r="L72" s="36"/>
       <c r="M72" s="36"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="36"/>
       <c r="B73" s="36"/>
       <c r="C73" s="36"/>
@@ -4313,7 +3403,7 @@
       <c r="L73" s="36"/>
       <c r="M73" s="36"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="36"/>
       <c r="B74" s="36"/>
       <c r="C74" s="36"/>
@@ -4328,7 +3418,7 @@
       <c r="L74" s="36"/>
       <c r="M74" s="36"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="36"/>
       <c r="B75" s="36"/>
       <c r="C75" s="36"/>
@@ -4343,7 +3433,7 @@
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="36"/>
       <c r="B76" s="36"/>
       <c r="C76" s="36"/>
@@ -4358,7 +3448,7 @@
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="36"/>
       <c r="B77" s="36"/>
       <c r="C77" s="36"/>
@@ -4373,7 +3463,7 @@
       <c r="L77" s="36"/>
       <c r="M77" s="36"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="36"/>
       <c r="B78" s="36"/>
       <c r="C78" s="36"/>
@@ -4388,7 +3478,7 @@
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="36"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -4403,7 +3493,7 @@
       <c r="L79" s="36"/>
       <c r="M79" s="36"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="36"/>
       <c r="B80" s="36"/>
       <c r="C80" s="36"/>
@@ -4418,7 +3508,7 @@
       <c r="L80" s="36"/>
       <c r="M80" s="36"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="36"/>
       <c r="B81" s="36"/>
       <c r="C81" s="36"/>
@@ -4433,7 +3523,7 @@
       <c r="L81" s="36"/>
       <c r="M81" s="36"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="36"/>
       <c r="B82" s="36"/>
       <c r="C82" s="36"/>
@@ -4448,7 +3538,7 @@
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="36"/>
       <c r="B83" s="36"/>
       <c r="C83" s="36"/>
@@ -4463,7 +3553,7 @@
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="36"/>
       <c r="B84" s="36"/>
       <c r="C84" s="36"/>
@@ -4478,7 +3568,7 @@
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="36"/>
       <c r="B85" s="36"/>
       <c r="C85" s="36"/>
@@ -4493,7 +3583,7 @@
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="36"/>
       <c r="B86" s="36"/>
       <c r="C86" s="36"/>
@@ -4508,7 +3598,7 @@
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="36"/>
       <c r="B87" s="36"/>
       <c r="C87" s="36"/>
@@ -4523,7 +3613,7 @@
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="36"/>
       <c r="B88" s="36"/>
       <c r="C88" s="36"/>
@@ -4538,7 +3628,7 @@
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="36"/>
       <c r="B89" s="36"/>
       <c r="C89" s="36"/>
@@ -4553,7 +3643,7 @@
       <c r="L89" s="36"/>
       <c r="M89" s="36"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="36"/>
       <c r="B90" s="36"/>
       <c r="C90" s="36"/>
@@ -4568,7 +3658,7 @@
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="36"/>
       <c r="B91" s="36"/>
       <c r="C91" s="36"/>
@@ -4583,7 +3673,7 @@
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="36"/>
       <c r="B92" s="36"/>
       <c r="C92" s="36"/>
@@ -4598,7 +3688,7 @@
       <c r="L92" s="36"/>
       <c r="M92" s="36"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="36"/>
       <c r="B93" s="36"/>
       <c r="C93" s="36"/>
@@ -4613,7 +3703,7 @@
       <c r="L93" s="36"/>
       <c r="M93" s="36"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="36"/>
       <c r="B94" s="36"/>
       <c r="C94" s="36"/>
@@ -4628,7 +3718,7 @@
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="36"/>
       <c r="B95" s="36"/>
       <c r="C95" s="36"/>
@@ -4643,7 +3733,7 @@
       <c r="L95" s="36"/>
       <c r="M95" s="36"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="36"/>
       <c r="B96" s="36"/>
       <c r="C96" s="36"/>
@@ -4658,7 +3748,7 @@
       <c r="L96" s="36"/>
       <c r="M96" s="36"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="36"/>
       <c r="B97" s="36"/>
       <c r="C97" s="36"/>
@@ -4673,7 +3763,7 @@
       <c r="L97" s="36"/>
       <c r="M97" s="36"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="36"/>
       <c r="B98" s="36"/>
       <c r="C98" s="36"/>
@@ -4688,7 +3778,7 @@
       <c r="L98" s="36"/>
       <c r="M98" s="36"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="36"/>
       <c r="B99" s="36"/>
       <c r="C99" s="36"/>
@@ -4703,7 +3793,7 @@
       <c r="L99" s="36"/>
       <c r="M99" s="36"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="36"/>
       <c r="B100" s="36"/>
       <c r="C100" s="36"/>
@@ -4718,7 +3808,7 @@
       <c r="L100" s="36"/>
       <c r="M100" s="36"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="36"/>
       <c r="B101" s="36"/>
       <c r="C101" s="36"/>
@@ -4733,7 +3823,7 @@
       <c r="L101" s="36"/>
       <c r="M101" s="36"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="36"/>
       <c r="B102" s="36"/>
       <c r="C102" s="36"/>
@@ -4748,7 +3838,7 @@
       <c r="L102" s="36"/>
       <c r="M102" s="36"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="36"/>
       <c r="B103" s="36"/>
       <c r="C103" s="36"/>
@@ -4763,7 +3853,7 @@
       <c r="L103" s="36"/>
       <c r="M103" s="36"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="36"/>
       <c r="B104" s="36"/>
       <c r="C104" s="36"/>
@@ -4778,7 +3868,7 @@
       <c r="L104" s="36"/>
       <c r="M104" s="36"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="36"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -4793,7 +3883,7 @@
       <c r="L105" s="36"/>
       <c r="M105" s="36"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="36"/>
       <c r="B106" s="36"/>
       <c r="C106" s="36"/>
@@ -4808,7 +3898,7 @@
       <c r="L106" s="36"/>
       <c r="M106" s="36"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="36"/>
       <c r="B107" s="36"/>
       <c r="C107" s="36"/>
@@ -4823,7 +3913,7 @@
       <c r="L107" s="36"/>
       <c r="M107" s="36"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="36"/>
       <c r="B108" s="36"/>
       <c r="C108" s="36"/>
@@ -4838,7 +3928,7 @@
       <c r="L108" s="36"/>
       <c r="M108" s="36"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="36"/>
       <c r="B109" s="36"/>
       <c r="C109" s="36"/>
@@ -4853,7 +3943,7 @@
       <c r="L109" s="36"/>
       <c r="M109" s="36"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="36"/>
       <c r="B110" s="36"/>
       <c r="C110" s="36"/>
@@ -4868,7 +3958,7 @@
       <c r="L110" s="36"/>
       <c r="M110" s="36"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="36"/>
       <c r="B111" s="36"/>
       <c r="C111" s="36"/>
@@ -4883,7 +3973,7 @@
       <c r="L111" s="36"/>
       <c r="M111" s="36"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="36"/>
       <c r="B112" s="36"/>
       <c r="C112" s="36"/>
@@ -4898,7 +3988,7 @@
       <c r="L112" s="36"/>
       <c r="M112" s="36"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="36"/>
       <c r="B113" s="36"/>
       <c r="C113" s="36"/>
@@ -4913,7 +4003,7 @@
       <c r="L113" s="36"/>
       <c r="M113" s="36"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="36"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -4928,7 +4018,7 @@
       <c r="L114" s="36"/>
       <c r="M114" s="36"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="36"/>
       <c r="B115" s="36"/>
       <c r="C115" s="36"/>
@@ -4943,7 +4033,7 @@
       <c r="L115" s="36"/>
       <c r="M115" s="36"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="36"/>
       <c r="B116" s="36"/>
       <c r="C116" s="36"/>
@@ -4958,7 +4048,7 @@
       <c r="L116" s="36"/>
       <c r="M116" s="36"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="36"/>
       <c r="B117" s="36"/>
       <c r="C117" s="36"/>
@@ -4973,7 +4063,7 @@
       <c r="L117" s="36"/>
       <c r="M117" s="36"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="36"/>
       <c r="B118" s="36"/>
       <c r="C118" s="36"/>
@@ -4988,7 +4078,7 @@
       <c r="L118" s="36"/>
       <c r="M118" s="36"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="36"/>
       <c r="B119" s="36"/>
       <c r="C119" s="36"/>
@@ -5003,7 +4093,7 @@
       <c r="L119" s="36"/>
       <c r="M119" s="36"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="36"/>
       <c r="B120" s="36"/>
       <c r="C120" s="36"/>
@@ -5018,7 +4108,7 @@
       <c r="L120" s="36"/>
       <c r="M120" s="36"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="36"/>
       <c r="B121" s="36"/>
       <c r="C121" s="36"/>
@@ -5033,7 +4123,7 @@
       <c r="L121" s="36"/>
       <c r="M121" s="36"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="36"/>
       <c r="B122" s="36"/>
       <c r="C122" s="36"/>
@@ -5048,7 +4138,7 @@
       <c r="L122" s="36"/>
       <c r="M122" s="36"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="36"/>
       <c r="B123" s="36"/>
       <c r="C123" s="36"/>
@@ -5063,7 +4153,7 @@
       <c r="L123" s="36"/>
       <c r="M123" s="36"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="36"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -5078,7 +4168,7 @@
       <c r="L124" s="36"/>
       <c r="M124" s="36"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="36"/>
       <c r="B125" s="36"/>
       <c r="C125" s="36"/>
@@ -5093,7 +4183,7 @@
       <c r="L125" s="36"/>
       <c r="M125" s="36"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="36"/>
       <c r="B126" s="36"/>
       <c r="C126" s="36"/>
@@ -5108,7 +4198,7 @@
       <c r="L126" s="36"/>
       <c r="M126" s="36"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="36"/>
       <c r="B127" s="36"/>
       <c r="C127" s="36"/>
@@ -5187,22 +4277,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="41.1796875" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.7265625" customWidth="1"/>
+    <col min="6" max="6" width="33.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="33" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="33" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -5237,7 +4327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="304.5" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
@@ -5266,25 +4356,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="44.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="44.7265625" style="7" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="5" max="5" width="32.7265625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.453125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5320,7 +4410,7 @@
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5343,7 +4433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -5358,7 +4448,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -5383,7 +4473,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="145" x14ac:dyDescent="0.35">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -5403,7 +4493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="E6" s="17" t="s">
         <v>25</v>
@@ -5412,7 +4502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -5424,7 +4514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E8" s="26" t="s">
         <v>15</v>
       </c>
@@ -5441,23 +4531,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +4583,7 @@
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5516,7 +4606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5531,7 +4621,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -5556,7 +4646,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -5576,7 +4666,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5588,7 +4678,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -5600,7 +4690,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D8"/>
       <c r="E8" s="26" t="s">
         <v>15</v>
@@ -5618,23 +4708,23 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" customWidth="1"/>
+    <col min="3" max="3" width="39.26953125" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="32.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5670,7 +4760,7 @@
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -5693,7 +4783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -5708,7 +4798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="19">
         <v>2</v>
       </c>
@@ -5733,7 +4823,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -5753,7 +4843,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -5765,7 +4855,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -5777,7 +4867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D8"/>
       <c r="E8" s="26" t="s">
         <v>15</v>
